--- a/src/MyItems/Documents/Test Cases for FileOperation.xlsx
+++ b/src/MyItems/Documents/Test Cases for FileOperation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Update codes\1229_new\Afternoon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="5352" windowHeight="7608" tabRatio="961"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="5355" windowHeight="7605" tabRatio="961" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.替换txt文件内的指定内容" sheetId="14" r:id="rId1"/>
@@ -13470,8 +13465,924 @@
   </si>
   <si>
     <r>
+      <t>1.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input folder or file path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:" 输入被复制文件夹的路径，如:D:\Test
+2.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input target folder path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:",输入需要复制到目标文件夹的路径，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\python经典100例.zip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.提示“目标路径为文件路径，不能复制到该路径下，请重新输入”（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cannot copy to file path E:\python经典100例.zip please input again!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+2.文件夹不应把该复制到指定路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>4.1.12</t>
+  </si>
+  <si>
+    <t>4.1.13</t>
+  </si>
+  <si>
+    <t>4.1.14</t>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被复制的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的路径和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标路径
+2.输入被复制文件夹路径和目标文件路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input folder or file path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:" 输入被复制文件夹的路径，如:D:\Test\Alonso.txt
+2.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input target folder path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:",输入需要复制到目标文件夹的路径，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\python经典100例.zip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.提示“目标路径为文件路径，不能复制到该路径下，请重新输入”（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cannot copy to file path E:\python经典100例.zip please input again!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+2.文件不应把该复制到指定路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被复制的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的路径和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标路径
+2.输入被复制文件夹路径和目标文件路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.10</t>
+  </si>
+  <si>
+    <t>4.2.11</t>
+  </si>
+  <si>
+    <t>4.2.12</t>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被复制文件的路径和目标路径已经</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的同名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件，尝试覆盖操作
+2.输入被移动文件路径和目标文件夹路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被移动文件的路径，尝试覆盖操作
+2.被移动文件路径和目标文件路径均输入同一个路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被复制的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的路径和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标路径
+2.输入被移动文件夹路径和目标文件路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示输入需要被移动文件夹或者文件路径时，输入空字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.10</t>
+  </si>
+  <si>
+    <t>5.1.11</t>
+  </si>
+  <si>
+    <t>5.1.12</t>
+  </si>
+  <si>
+    <r>
+      <t>1.提示“目标路径为文件路径，不能移动到该路径下，请重新输入”（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cannot move to file path E:\python经典100例.zip please input again!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+2.文件不应把该移动到指定路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.找到本地计算机中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要被复制的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的路径和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在的文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标路径
+2.输入被移动文件夹路径和目标文件路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input folder or file path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:" 输入被复制文件的路径，如:D:\Test\Alonso.txt
+2.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input target folder path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:",输入需要复制到目标文件夹的路径，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\python经典100例.zip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input folder or file path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:" 输入被移动文件夹的路径，如:D:\Test
+2.在"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please input target folder path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:",输入需要移动到目标文件夹的路径，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\python经典100例.zip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.10</t>
+  </si>
+  <si>
+    <t>5.2.11</t>
+  </si>
+  <si>
+    <t>5.2.12</t>
+  </si>
+  <si>
+    <t>5.2.13</t>
+  </si>
+  <si>
+    <t>5.2.14</t>
+  </si>
+  <si>
+    <r>
       <t>1.能够出现提示输入的信息
-2.显示出成功解压为zip文件夹，且存放所在的目录下的信息（</t>
+2.显示该文件不存在打开的消息（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\Selenium配置文件\IEDriverServer-old.zip is NOT exist!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+3.不会打开该文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.能够出现提示输入的信息
+2.显示该文件被成功打开的消息（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\Selenium配置文件\IEDriverServer-old.exe has been opened sucessfully!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+3.查看到打开的指定文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.能够出现提示输入的信息
+2.显示该文件夹被成功打开的消息（</t>
     </r>
     <r>
       <rPr>
@@ -13502,19 +14413,19 @@
   <si>
     <r>
       <t>1.能够出现提示输入的信息
-2.显示出成功解压为zip文件夹，且存放所在的目录下的信息（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\Selenium配置文件\IEDriverServer-old.exe has been opened sucessfully!</t>
+2.显示该文件夹被成功打开的消息（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\xfmovies has been opened sucessfully!</t>
     </r>
     <r>
       <rPr>
@@ -13526,26 +14437,26 @@
         <scheme val="minor"/>
       </rPr>
       <t>）
-3.查看到打开的指定文件</t>
+3.查看到打开的指定文件夹</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>1.能够出现提示输入的信息
-2.显示该zip文件不存在的信息（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\Selenium配置文件\IEDriverServer-old.zip is NOT exist!</t>
+2.显示该文件夹不存在的消息（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E:\xfmovies is NOT exist!</t>
     </r>
     <r>
       <rPr>
@@ -13564,69 +14475,7 @@
   <si>
     <r>
       <t>1.能够出现提示输入的信息
-2.显示该zip文件不存在的信息（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\xfmovies is NOT exist!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-3.不会打开该文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.能够出现提示输入的信息
-2.显示出成功解压为zip文件夹，且存放所在的目录下的信息（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\xfmovies has been opened sucessfully!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-3.查看到打开的指定文件夹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.能够出现提示输入的信息
-2.显示出同名zip文件夹已经存在，且不能被覆盖的信息（</t>
+2.显示该文件被成功打开的消息（</t>
     </r>
     <r>
       <rPr>
@@ -13653,866 +14502,12 @@
 3.处于已打开的文件依然处于打开状态或者重复打开，不会出现任何报错信息</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input folder or file path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:" 输入被复制文件夹的路径，如:D:\Test
-2.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input target folder path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:",输入需要复制到目标文件夹的路径，如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\python经典100例.zip</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.提示“目标路径为文件路径，不能复制到该路径下，请重新输入”（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cannot copy to file path E:\python经典100例.zip please input again!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-2.文件夹不应把该复制到指定路径</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.10</t>
-  </si>
-  <si>
-    <t>4.1.11</t>
-  </si>
-  <si>
-    <t>4.1.12</t>
-  </si>
-  <si>
-    <t>4.1.13</t>
-  </si>
-  <si>
-    <t>4.1.14</t>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被复制的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任何文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的路径和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目标路径
-2.输入被复制文件夹路径和目标文件路径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input folder or file path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:" 输入被复制文件夹的路径，如:D:\Test\Alonso.txt
-2.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input target folder path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:",输入需要复制到目标文件夹的路径，如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\python经典100例.zip</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.提示“目标路径为文件路径，不能复制到该路径下，请重新输入”（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cannot copy to file path E:\python经典100例.zip please input again!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-2.文件不应把该复制到指定路径</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被复制的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任何文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的路径和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目标路径
-2.输入被复制文件夹路径和目标文件路径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.10</t>
-  </si>
-  <si>
-    <t>4.2.11</t>
-  </si>
-  <si>
-    <t>4.2.12</t>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被复制文件的路径和目标路径已经</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的同名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件，尝试覆盖操作
-2.输入被移动文件路径和目标文件夹路径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被移动文件的路径，尝试覆盖操作
-2.被移动文件路径和目标文件路径均输入同一个路径</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被复制的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任何文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的路径和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目标路径
-2.输入被移动文件夹路径和目标文件路径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示输入需要被移动文件夹或者文件路径时，输入空字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.10</t>
-  </si>
-  <si>
-    <t>5.1.11</t>
-  </si>
-  <si>
-    <t>5.1.12</t>
-  </si>
-  <si>
-    <r>
-      <t>1.提示“目标路径为文件路径，不能移动到该路径下，请重新输入”（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cannot move to file path E:\python经典100例.zip please input again!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-2.文件不应把该移动到指定路径</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.找到本地计算机中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要被复制的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任何文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的路径和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存在的文件夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目标路径
-2.输入被移动文件夹路径和目标文件路径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input folder or file path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:" 输入被复制文件的路径，如:D:\Test\Alonso.txt
-2.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input target folder path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:",输入需要复制到目标文件夹的路径，如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\python经典100例.zip</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input folder or file path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:" 输入被移动文件夹的路径，如:D:\Test
-2.在"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please input target folder path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:",输入需要移动到目标文件夹的路径，如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E:\python经典100例.zip</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.10</t>
-  </si>
-  <si>
-    <t>5.2.11</t>
-  </si>
-  <si>
-    <t>5.2.12</t>
-  </si>
-  <si>
-    <t>5.2.13</t>
-  </si>
-  <si>
-    <t>5.2.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -15101,7 +15096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15134,26 +15129,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15186,23 +15164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15381,24 +15342,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="41.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="53" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -15408,7 +15369,7 @@
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -15434,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1.1000000000000001</v>
       </c>
@@ -15458,7 +15419,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>1.2</v>
       </c>
@@ -15476,7 +15437,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1.3</v>
       </c>
@@ -15494,7 +15455,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>1.4</v>
       </c>
@@ -15512,7 +15473,7 @@
       </c>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>1.5</v>
       </c>
@@ -15530,7 +15491,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" s="55" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="55" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1.6</v>
       </c>
@@ -15550,7 +15511,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>1.7</v>
       </c>
@@ -15570,7 +15531,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A10" s="52">
         <v>1.8</v>
       </c>
@@ -15588,7 +15549,7 @@
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A11" s="57">
         <v>1.9</v>
       </c>
@@ -15627,19 +15588,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -15649,7 +15610,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -15675,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>10.1</v>
       </c>
@@ -15699,7 +15660,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>10.199999999999999</v>
       </c>
@@ -15717,7 +15678,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="43">
         <v>10.3</v>
       </c>
@@ -15737,7 +15698,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>10.4</v>
       </c>
@@ -15755,7 +15716,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="45">
         <v>10.5</v>
       </c>
@@ -15775,7 +15736,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>10.6</v>
       </c>
@@ -15817,19 +15778,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -15839,7 +15800,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -15865,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>11.1</v>
       </c>
@@ -15889,7 +15850,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>11.2</v>
       </c>
@@ -15907,7 +15868,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A5" s="43">
         <v>11.3</v>
       </c>
@@ -15923,7 +15884,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A6" s="43">
         <v>11.4</v>
       </c>
@@ -15943,7 +15904,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>11.5</v>
       </c>
@@ -15961,7 +15922,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>11.6</v>
       </c>
@@ -15977,7 +15938,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>11.7</v>
       </c>
@@ -15997,7 +15958,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>11.8</v>
       </c>
@@ -16017,7 +15978,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>11.9</v>
       </c>
@@ -16058,19 +16019,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -16080,7 +16041,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -16106,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>12.1</v>
       </c>
@@ -16130,7 +16091,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>12.2</v>
       </c>
@@ -16148,7 +16109,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>12.3</v>
       </c>
@@ -16164,7 +16125,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A6" s="43">
         <v>12.4</v>
       </c>
@@ -16180,7 +16141,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>12.5</v>
       </c>
@@ -16200,7 +16161,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A8" s="43">
         <v>12.6</v>
       </c>
@@ -16218,7 +16179,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>12.7</v>
       </c>
@@ -16236,7 +16197,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A10" s="43">
         <v>12.8</v>
       </c>
@@ -16254,7 +16215,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>12.9</v>
       </c>
@@ -16274,7 +16235,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
         <v>327</v>
       </c>
@@ -16311,23 +16272,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -16337,7 +16298,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -16363,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>13.1</v>
       </c>
@@ -16380,14 +16341,14 @@
         <v>422</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>13.2</v>
       </c>
@@ -16398,14 +16359,14 @@
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="2" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>13.3</v>
       </c>
@@ -16416,12 +16377,12 @@
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="2" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>13.5</v>
       </c>
@@ -16434,14 +16395,14 @@
         <v>431</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A7" s="43">
         <v>13.6</v>
       </c>
@@ -16452,14 +16413,14 @@
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="2" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>13.7</v>
       </c>
@@ -16470,14 +16431,14 @@
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="2" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>13.9</v>
       </c>
@@ -16497,7 +16458,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
         <v>445</v>
       </c>
@@ -16539,19 +16500,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -16561,7 +16522,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -16587,7 +16548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>14.1</v>
       </c>
@@ -16611,7 +16572,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>14.2</v>
       </c>
@@ -16629,7 +16590,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>14.3</v>
       </c>
@@ -16647,7 +16608,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>14.4</v>
       </c>
@@ -16665,7 +16626,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>14.5</v>
       </c>
@@ -16704,19 +16665,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -16726,7 +16687,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
@@ -16752,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A3" s="41">
         <v>15.1</v>
       </c>
@@ -16776,7 +16737,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="41">
         <v>15.2</v>
       </c>
@@ -16794,7 +16755,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>15.3</v>
       </c>
@@ -16812,7 +16773,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>15.4</v>
       </c>
@@ -16830,7 +16791,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>15.5</v>
       </c>
@@ -16848,7 +16809,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="41">
         <v>15.6</v>
       </c>
@@ -16866,7 +16827,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>15.7</v>
       </c>
@@ -16884,7 +16845,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="41">
         <v>15.8</v>
       </c>
@@ -16902,7 +16863,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
         <v>15.9</v>
       </c>
@@ -16920,7 +16881,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
         <v>450</v>
       </c>
@@ -16938,7 +16899,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
         <v>453</v>
       </c>
@@ -16956,7 +16917,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
         <v>451</v>
       </c>
@@ -16974,7 +16935,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
         <v>452</v>
       </c>
@@ -16992,7 +16953,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
         <v>454</v>
       </c>
@@ -17008,7 +16969,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="46" t="s">
         <v>455</v>
       </c>
@@ -17026,7 +16987,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
         <v>456</v>
       </c>
@@ -17065,20 +17026,20 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -17088,7 +17049,7 @@
       <c r="G1" s="81"/>
       <c r="H1" s="81"/>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -17114,7 +17075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="218.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="171" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -17138,7 +17099,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="202.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="171" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -17158,7 +17119,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -17178,7 +17139,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
@@ -17198,7 +17159,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>189</v>
       </c>
@@ -17218,7 +17179,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -17229,7 +17190,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -17256,7 +17217,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="202.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="171" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
@@ -17281,7 +17242,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="218.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="171" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>89</v>
       </c>
@@ -17302,7 +17263,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -17323,7 +17284,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
         <v>91</v>
       </c>
@@ -17343,7 +17304,7 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>191</v>
       </c>
@@ -17363,7 +17324,7 @@
       </c>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="82"/>
       <c r="C15" s="4"/>
@@ -17374,7 +17335,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="82"/>
       <c r="C16" s="4"/>
@@ -17385,7 +17346,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="82"/>
       <c r="C17" s="4"/>
@@ -17396,7 +17357,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="82"/>
       <c r="C18" s="4"/>
@@ -17407,7 +17368,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="82"/>
       <c r="C19" s="4"/>
@@ -17418,7 +17379,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -17429,7 +17390,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -17440,7 +17401,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="D22" s="3"/>
@@ -17473,20 +17434,20 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="68" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="68" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="68" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="68" customWidth="1"/>
     <col min="6" max="6" width="38" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="68" customWidth="1"/>
     <col min="9" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="83"/>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -17496,7 +17457,7 @@
       <c r="G1" s="83"/>
       <c r="H1" s="83"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -17522,7 +17483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="356.25" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>3.1</v>
       </c>
@@ -17546,7 +17507,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3.2</v>
       </c>
@@ -17564,7 +17525,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>3.3</v>
       </c>
@@ -17582,7 +17543,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="327.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>3.4</v>
       </c>
@@ -17602,7 +17563,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>3.5</v>
       </c>
@@ -17620,7 +17581,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="70" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="70" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>3.6</v>
       </c>
@@ -17640,7 +17601,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" s="70" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="70" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>3.7</v>
       </c>
@@ -17660,7 +17621,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>3.8</v>
       </c>
@@ -17680,7 +17641,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -17690,7 +17651,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="66"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -17700,7 +17661,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -17710,7 +17671,7 @@
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -17720,7 +17681,7 @@
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="69"/>
     </row>
   </sheetData>
@@ -17744,15 +17705,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="52.25" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -17765,7 +17726,7 @@
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -17791,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -17815,7 +17776,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -17833,7 +17794,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>369</v>
       </c>
@@ -17851,7 +17812,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
@@ -17869,7 +17830,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>371</v>
       </c>
@@ -17887,7 +17848,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>372</v>
       </c>
@@ -17905,7 +17866,7 @@
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>373</v>
       </c>
@@ -17923,7 +17884,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>374</v>
       </c>
@@ -17941,29 +17902,29 @@
       </c>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="33" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -17981,9 +17942,9 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="156" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -18001,9 +17962,9 @@
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -18021,9 +17982,9 @@
       </c>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
@@ -18041,9 +18002,9 @@
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -18061,7 +18022,7 @@
       </c>
       <c r="H16" s="63"/>
     </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -18087,7 +18048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>125</v>
       </c>
@@ -18111,7 +18072,7 @@
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>126</v>
       </c>
@@ -18129,7 +18090,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>376</v>
       </c>
@@ -18147,7 +18108,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>377</v>
       </c>
@@ -18165,7 +18126,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>378</v>
       </c>
@@ -18183,7 +18144,7 @@
       </c>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>379</v>
       </c>
@@ -18201,27 +18162,27 @@
       </c>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B25" s="79"/>
       <c r="C25" s="79"/>
       <c r="D25" s="33" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>381</v>
       </c>
@@ -18241,7 +18202,7 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>382</v>
       </c>
@@ -18261,9 +18222,9 @@
       </c>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -18281,9 +18242,9 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -18301,9 +18262,9 @@
       </c>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -18345,19 +18306,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="59.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -18367,7 +18328,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -18393,7 +18354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="22" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>350</v>
       </c>
@@ -18417,7 +18378,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>351</v>
       </c>
@@ -18435,7 +18396,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="114" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>352</v>
       </c>
@@ -18453,7 +18414,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>353</v>
       </c>
@@ -18471,14 +18432,14 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91"/>
       <c r="D7" s="27" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="27" t="s">
@@ -18489,14 +18450,14 @@
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>355</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="34" t="s">
@@ -18507,34 +18468,34 @@
       </c>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>356</v>
       </c>
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
       <c r="D9" s="33" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>357</v>
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>278</v>
@@ -18547,7 +18508,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" ht="156" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>358</v>
       </c>
@@ -18567,9 +18528,9 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
@@ -18587,9 +18548,9 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
@@ -18607,9 +18568,9 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="92"/>
@@ -18627,7 +18588,7 @@
       </c>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -18636,7 +18597,7 @@
       <c r="F15" s="9"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -18662,7 +18623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>359</v>
       </c>
@@ -18686,7 +18647,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>360</v>
       </c>
@@ -18704,7 +18665,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>361</v>
       </c>
@@ -18722,7 +18683,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>362</v>
       </c>
@@ -18740,7 +18701,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>363</v>
       </c>
@@ -18758,7 +18719,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>364</v>
       </c>
@@ -18776,7 +18737,7 @@
       </c>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>365</v>
       </c>
@@ -18794,7 +18755,7 @@
       </c>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>366</v>
       </c>
@@ -18812,29 +18773,29 @@
       </c>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B25" s="79"/>
       <c r="C25" s="91"/>
       <c r="D25" s="33" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="91"/>
@@ -18852,9 +18813,9 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B27" s="79"/>
       <c r="C27" s="91"/>
@@ -18872,9 +18833,9 @@
       </c>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B28" s="79"/>
       <c r="C28" s="91"/>
@@ -18892,9 +18853,9 @@
       </c>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="91"/>
@@ -18912,9 +18873,9 @@
       </c>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B30" s="80"/>
       <c r="C30" s="92"/>
@@ -18956,20 +18917,20 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="58" customWidth="1"/>
     <col min="6" max="6" width="34" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="58" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="93"/>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -18979,7 +18940,7 @@
       <c r="G1" s="93"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -19005,7 +18966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>6.1</v>
       </c>
@@ -19029,7 +18990,7 @@
       </c>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>6.2</v>
       </c>
@@ -19047,7 +19008,7 @@
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>6.3</v>
       </c>
@@ -19065,7 +19026,7 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>6.4</v>
       </c>
@@ -19083,7 +19044,7 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6.5</v>
       </c>
@@ -19103,7 +19064,7 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>6.6</v>
       </c>
@@ -19123,7 +19084,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>6.7</v>
       </c>
@@ -19143,7 +19104,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>6.8</v>
       </c>
@@ -19163,7 +19124,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
     </row>
   </sheetData>
@@ -19187,18 +19148,18 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -19208,7 +19169,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -19234,7 +19195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="280.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>7.1</v>
       </c>
@@ -19258,7 +19219,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>7.2</v>
       </c>
@@ -19276,7 +19237,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>7.3</v>
       </c>
@@ -19294,7 +19255,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>7.4</v>
       </c>
@@ -19314,7 +19275,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>7.5</v>
       </c>
@@ -19332,7 +19293,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7.6</v>
       </c>
@@ -19352,7 +19313,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>7.7</v>
       </c>
@@ -19372,7 +19333,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>7.8</v>
       </c>
@@ -19392,7 +19353,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
     </row>
   </sheetData>
@@ -19416,19 +19377,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="35.375" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -19438,7 +19399,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -19464,7 +19425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>330</v>
       </c>
@@ -19488,7 +19449,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>331</v>
       </c>
@@ -19506,7 +19467,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>332</v>
       </c>
@@ -19524,7 +19485,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>333</v>
       </c>
@@ -19542,7 +19503,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>334</v>
       </c>
@@ -19560,7 +19521,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>335</v>
       </c>
@@ -19580,7 +19541,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>336</v>
       </c>
@@ -19600,7 +19561,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>337</v>
       </c>
@@ -19620,7 +19581,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -19646,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>339</v>
       </c>
@@ -19670,7 +19631,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>340</v>
       </c>
@@ -19688,7 +19649,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>341</v>
       </c>
@@ -19706,7 +19667,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>342</v>
       </c>
@@ -19724,7 +19685,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>343</v>
       </c>
@@ -19742,7 +19703,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>344</v>
       </c>
@@ -19762,7 +19723,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>345</v>
       </c>
@@ -19782,7 +19743,7 @@
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>346</v>
       </c>
@@ -19826,18 +19787,18 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="40.21875" customWidth="1"/>
-    <col min="6" max="6" width="48.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="40.25" customWidth="1"/>
+    <col min="6" max="6" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -19847,7 +19808,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -19873,7 +19834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="343.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>9.1</v>
       </c>
@@ -19899,7 +19860,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>9.1999999999999993</v>
       </c>
@@ -19917,7 +19878,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>9.3000000000000007</v>
       </c>
@@ -19935,7 +19896,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>9.4</v>
       </c>
@@ -19955,7 +19916,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>9.5</v>
       </c>
@@ -19973,7 +19934,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>9.6</v>
       </c>
@@ -19991,7 +19952,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>9.6999999999999993</v>
       </c>
@@ -20011,7 +19972,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9.8000000000000007</v>
       </c>
@@ -20031,7 +19992,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>9.9</v>
       </c>
@@ -20051,7 +20012,7 @@
       </c>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
         <v>328</v>
       </c>
